--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Sr. No</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>114/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ408</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -941,10 +944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1062,320 +1065,336 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20">
-        <f>E5+E6+E7</f>
-        <v>79057.64</v>
-      </c>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="21">
+        <v>45358</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22">
+        <v>168741</v>
+      </c>
+      <c r="F8" s="20">
+        <f>E5+E6+E7+E8</f>
+        <v>247798.64</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="11"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B10" s="14">
         <v>44841</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F9" s="12">
-        <f>E9-50000</f>
+      <c r="F10" s="12">
+        <f>E10-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B12" s="14">
         <v>44861</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>2689515</v>
       </c>
-      <c r="F11" s="12">
-        <f>E11-2512515</f>
+      <c r="F12" s="12">
+        <f>E12-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="J12" s="10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="J13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B14" s="14">
         <v>44902</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F13" s="12">
-        <f>E13-175496-500000-800000-200000</f>
+      <c r="F14" s="12">
+        <f>E14-175496-500000-800000-200000</f>
         <v>346062.30000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="21">
-        <v>45292</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="22">
-        <v>223588</v>
-      </c>
-      <c r="F14" s="12">
-        <f>E14</f>
-        <v>223588</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="22">
+        <v>223588</v>
+      </c>
       <c r="F15" s="12">
-        <f>F13+F14</f>
+        <f>E15</f>
+        <v>223588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="12">
+        <f>F14+F15</f>
         <v>569650.30000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F17" s="26">
-        <f>E17-1364617</f>
-        <v>782381.20000000019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F18" s="26">
+        <f>E18-1364617</f>
+        <v>782381.20000000019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15">
         <v>2202021.6</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18-1364617</f>
+      <c r="F19" s="12">
+        <f>E19-1364617</f>
         <v>837404.60000000009</v>
       </c>
-      <c r="G18" s="27">
-        <f>F18-F17</f>
+      <c r="G19" s="27">
+        <f>F19-F18</f>
         <v>55023.399999999907</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="27"/>
-    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B21" s="14">
         <v>45261</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>42000</v>
       </c>
-      <c r="F20" s="12">
-        <f>E20-20000-17000</f>
+      <c r="F21" s="12">
+        <f>E21-20000-17000</f>
         <v>5000</v>
       </c>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B23" s="21">
         <v>45293</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E23" s="22">
         <v>82234.2</v>
       </c>
-      <c r="F22" s="12">
-        <f>E22-70000-4181.4</f>
+      <c r="F23" s="12">
+        <f>E23-70000-4181.4</f>
         <v>8052.7999999999975</v>
       </c>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="32"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="B25" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F25" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>44573</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F26" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7">
         <v>44954</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
         <v>20000</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <f>F26+F25-E25-E26-E27</f>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <f>F27+F26-E26-E27-E28</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Sr. No</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>Namrata Rubber Product Pvt Ltd</t>
-  </si>
-  <si>
-    <t>VM/10538/23-24</t>
-  </si>
-  <si>
-    <t>V M Traders</t>
   </si>
   <si>
     <t>b23-24MQ310</t>
@@ -692,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -740,7 +734,7 @@
         <v>45328</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -756,7 +750,7 @@
         <v>45355</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
@@ -777,163 +771,142 @@
       <c r="E5" s="35"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9">
-        <v>39412</v>
-      </c>
-      <c r="F6" s="25">
-        <f>E6</f>
-        <v>39412</v>
-      </c>
+      <c r="B6" s="24">
+        <v>45294</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="23">
+        <v>64900</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="24">
+        <v>45294</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="23">
+        <v>34810</v>
+      </c>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="24">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="23">
-        <v>64900</v>
-      </c>
-      <c r="F8" s="25"/>
+        <v>54693</v>
+      </c>
+      <c r="F8" s="25">
+        <f>E6+E7+E8</f>
+        <v>154403</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="24">
-        <v>45294</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24">
+        <v>45307</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="23">
-        <v>34810</v>
-      </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="24">
-        <v>45323</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="23">
-        <v>54693</v>
-      </c>
-      <c r="F10" s="25">
-        <f>E8+E9+E10</f>
-        <v>154403</v>
-      </c>
+        <v>3472</v>
+      </c>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="24">
+        <v>45308</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2877</v>
+      </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="24">
+        <v>45311</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1756</v>
+      </c>
+      <c r="F12" s="25">
+        <f>E10+E11+E12</f>
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="24">
-        <v>45307</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="23">
-        <v>2877</v>
-      </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
       <c r="B14" s="24">
-        <v>45311</v>
-      </c>
-      <c r="C14" s="23" t="s">
+        <v>45321</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1530</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1756</v>
+      <c r="E14" s="41">
+        <v>9525</v>
       </c>
       <c r="F14" s="25">
-        <f>E12+E13+E14</f>
-        <v>8105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>5</v>
-      </c>
-      <c r="B16" s="24">
-        <v>45321</v>
-      </c>
-      <c r="C16" s="23">
-        <v>1530</v>
-      </c>
-      <c r="D16" s="23" t="s">
+        <f>E14</f>
+        <v>9525</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="41">
-        <v>9525</v>
-      </c>
-      <c r="F16" s="25">
-        <f>E16</f>
-        <v>9525</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -946,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1046,7 @@
         <v>45358</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1182,10 +1155,10 @@
         <v>45292</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="22">
         <v>223588</v>
@@ -1265,10 +1238,10 @@
         <v>45261</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="15">
         <v>42000</v>
@@ -1296,10 +1269,10 @@
         <v>45293</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="22">
         <v>82234.2</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -919,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -920,7 +920,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Sr. No</t>
   </si>
@@ -155,9 +155,6 @@
     <t>SLH/3668</t>
   </si>
   <si>
-    <t>100/23-24</t>
-  </si>
-  <si>
     <t>Aquachemitech</t>
   </si>
   <si>
@@ -171,6 +168,21 @@
   </si>
   <si>
     <t>b23-24MQ408</t>
+  </si>
+  <si>
+    <t>INV-017490</t>
+  </si>
+  <si>
+    <t>Pilz India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>122/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ409</t>
+  </si>
+  <si>
+    <t>119/23-24</t>
   </si>
 </sst>
 </file>
@@ -686,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -731,182 +743,219 @@
         <v>1</v>
       </c>
       <c r="B3" s="24">
-        <v>45328</v>
+        <v>45355</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="23">
-        <v>55401</v>
+        <v>47466</v>
       </c>
       <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="24">
-        <v>45355</v>
+        <v>45363</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="23">
-        <v>47466</v>
-      </c>
-      <c r="F4" s="25">
-        <f>E3+E4</f>
-        <v>102867</v>
-      </c>
+        <v>10178</v>
+      </c>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="24">
+        <v>45365</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="23">
+        <v>129151</v>
+      </c>
+      <c r="F5" s="25">
+        <f>E3+E4+E5</f>
+        <v>186795</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
-        <v>45294</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="23">
-        <v>64900</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
       <c r="B7" s="24">
         <v>45294</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="23">
-        <v>34810</v>
+        <v>64900</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="24">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="23">
-        <v>54693</v>
-      </c>
-      <c r="F8" s="25">
-        <f>E6+E7+E8</f>
-        <v>154403</v>
-      </c>
+        <v>34810</v>
+      </c>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="24">
+        <v>45323</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="23">
+        <v>54693</v>
+      </c>
+      <c r="F9" s="25">
+        <f>E7+E8+E9</f>
+        <v>154403</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B11" s="24">
         <v>45307</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="23">
-        <v>2877</v>
+        <v>3472</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24">
-        <v>45311</v>
+        <v>45308</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="23">
+        <v>2877</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="24">
+        <v>45311</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="23">
         <v>1756</v>
       </c>
-      <c r="F12" s="25">
-        <f>E10+E11+E12</f>
+      <c r="F13" s="25">
+        <f>E11+E12+E13</f>
         <v>8105</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="15" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B15" s="24">
         <v>45321</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C15" s="23">
         <v>1530</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="41">
+      <c r="D15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="41">
         <v>9525</v>
       </c>
-      <c r="F14" s="25">
-        <f>E14</f>
+      <c r="F15" s="25">
+        <f>E15</f>
         <v>9525</v>
       </c>
-      <c r="G14" s="40" t="s">
-        <v>43</v>
+      <c r="G15" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>5</v>
+      </c>
+      <c r="B17" s="24">
+        <v>45364</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="23">
+        <v>192635</v>
+      </c>
+      <c r="F17" s="25">
+        <f>E17</f>
+        <v>192635</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1095,7 @@
         <v>45358</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1054,320 +1103,336 @@
       <c r="E8" s="22">
         <v>168741</v>
       </c>
-      <c r="F8" s="20">
-        <f>E5+E6+E7+E8</f>
-        <v>247798.64</v>
-      </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="21">
+        <v>45370</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22">
+        <v>793578</v>
+      </c>
+      <c r="F9" s="20">
+        <f>E5+E6+E7+E8+E9</f>
+        <v>1041376.64</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="11"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B11" s="14">
         <v>44841</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F10" s="12">
-        <f>E10-50000</f>
+      <c r="F11" s="12">
+        <f>E11-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="14">
         <v>44861</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>2689515</v>
       </c>
-      <c r="F12" s="12">
-        <f>E12-2512515</f>
+      <c r="F13" s="12">
+        <f>E13-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="J13" s="10" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="J14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B15" s="14">
         <v>44902</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F14" s="12">
-        <f>E14-175496-500000-800000-200000</f>
+      <c r="F15" s="12">
+        <f>E15-175496-500000-800000-200000</f>
         <v>346062.30000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="21">
-        <v>45292</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="22">
-        <v>223588</v>
-      </c>
-      <c r="F15" s="12">
-        <f>E15</f>
-        <v>223588</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="22">
+        <v>223588</v>
+      </c>
       <c r="F16" s="12">
-        <f>F14+F15</f>
+        <f>E16</f>
+        <v>223588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="12">
+        <f>F15+F16</f>
         <v>569650.30000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F18" s="26">
-        <f>E18-1364617</f>
-        <v>782381.20000000019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F19" s="26">
+        <f>E19-1364617</f>
+        <v>782381.20000000019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15">
         <v>2202021.6</v>
       </c>
-      <c r="F19" s="12">
-        <f>E19-1364617</f>
+      <c r="F20" s="12">
+        <f>E20-1364617</f>
         <v>837404.60000000009</v>
       </c>
-      <c r="G19" s="27">
-        <f>F19-F18</f>
+      <c r="G20" s="27">
+        <f>F20-F19</f>
         <v>55023.399999999907</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="27"/>
-    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B22" s="14">
         <v>45261</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>42000</v>
       </c>
-      <c r="F21" s="12">
-        <f>E21-20000-17000</f>
+      <c r="F22" s="12">
+        <f>E22-20000-17000</f>
         <v>5000</v>
       </c>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B24" s="21">
         <v>45293</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C24" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E24" s="22">
         <v>82234.2</v>
       </c>
-      <c r="F23" s="12">
-        <f>E23-70000-4181.4</f>
+      <c r="F24" s="12">
+        <f>E24-70000-4181.4</f>
         <v>8052.7999999999975</v>
       </c>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="32"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F26" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
       <c r="B27" s="7">
         <v>44573</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F27" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7">
         <v>44954</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
         <v>20000</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6">
-        <f>F27+F26-E26-E27-E28</f>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <f>F28+F27-E27-E28-E29</f>
         <v>32004.100000000006</v>
       </c>
     </row>
